--- a/biology/Botanique/Melanthiaceae/Melanthiaceae.xlsx
+++ b/biology/Botanique/Melanthiaceae/Melanthiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des mélanthiacées, regroupe des plantes monocotylédones ; elle comprend une centaine d'espèces réparties en une vingtaine de genres.
 Ce sont des plantes herbacées, rhizomateuses ou tubéreuses des régions froides, tempérées ou d'Amérique tropicale.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Melanthium qui lui-même se compose du grec μέλι / meli, miel, et ανθος / anthos, fleur, soulignant l'aspect mellifère de la plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Melanthium qui lui-même se compose du grec μέλι / meli, miel, et ανθος / anthos, fleur, soulignant l'aspect mellifère de la plante.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] la famille n'existe pas et ces plantes sont incluses dans les Liliaceae.
-Cette famille a été  créée en classification phylogénétique APG II (2003)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) la famille n'existe pas et ces plantes sont incluses dans les Liliaceae.
+Cette famille a été  créée en classification phylogénétique APG II (2003).
 Certains auteurs y regroupent également les genres placés dans la famille des Narthéciacées.
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 Amianthium A.Gray (1837)
 Anticlea Kunth (1843)
 Chamaelirium Willd. (1808)
@@ -597,7 +615,7 @@
 Xerophyllum Michx. (1803)
 Ypsilandra Franch. (1888)
 Zigadenus Michx. (1803)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 Amianthium A.Gray
 Chamaelirium Willd.
 Chionographis Maxim.
@@ -614,7 +632,7 @@
 Xerophyllum Michaux
 Ypsilandra Franch.
 Zigadenus Michaux
-Selon NCBI  (15 avr. 2010)[6] :
+Selon NCBI  (15 avr. 2010) :
 Amianthium
 Anticlea
 Chamaelirium
@@ -634,7 +652,7 @@
 Xerophyllum
 Ypsilandra
 Zigadenus
-Selon DELTA Angio           (15 avr. 2010)[7] :
+Selon DELTA Angio           (15 avr. 2010) :
 Amianthium
 Anticlea
 Chamaelirium
